--- a/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type1/pd_results_W15_H50_B32.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type1/pd_results_W15_H50_B32.xlsx
@@ -518,7 +518,7 @@
         <v>0.7123287671232876</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4559270516717325</v>
+        <v>0.4832826747720365</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.08280741919908507</v>
+        <v>0.09269290435476053</v>
       </c>
       <c r="J2" t="n">
-        <v>1075.466015377566</v>
+        <v>1229.914093120842</v>
       </c>
       <c r="K2" t="n">
-        <v>1597477.36818131</v>
+        <v>2075837.01863126</v>
       </c>
       <c r="L2" t="n">
-        <v>1263.91351293564</v>
+        <v>1440.776533203973</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6996392782377471</v>
+        <v>0.6096971903353297</v>
       </c>
     </row>
   </sheetData>
